--- a/docs/components_list.xlsx
+++ b/docs/components_list.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chibuike\Projects\Clients\MiddlesexUniversity\4th_Year_2018\AdvancedMechatronics\advanced_mechatronics_2018\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick25/advanced_mechatronics_2018/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378AC6A5-C44F-294C-A33A-47BCA072B1C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885"/>
+    <workbookView xWindow="5760" yWindow="4480" windowWidth="32640" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,18 +25,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Component</t>
   </si>
   <si>
     <t>From</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>12mm length M5 bolt for elbow</t>
+  </si>
+  <si>
+    <t>https://www.accu.co.uk/en/socket-button-screws/8148-SSB-M5-12-A2</t>
+  </si>
+  <si>
+    <t>unit cost</t>
+  </si>
+  <si>
+    <t>https://www.accu.co.uk/en/hexagon-nuts/7891-HPN-M5-A2</t>
+  </si>
+  <si>
+    <t>igus bearing for elbow</t>
+  </si>
+  <si>
+    <t>https://www.igus.com/info/plain-bearings-slewing-ring-bearing-style-02-ca?C=US&amp;L=en</t>
+  </si>
+  <si>
+    <t>inc vat</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>https://www.easycomposites.co.uk/#!/cured-carbon-fibre-products/carbon-fibre-box-section/carbon-fibre-box-section-20mm-17mm.html</t>
+  </si>
+  <si>
+    <t>carbon fibre 20mm box section 2m length</t>
+  </si>
+  <si>
+    <t>M5 nuts</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/ProductDetail/alps/rk16312a0bkh/?qs=6EGMNY9ZYDSJjbtuh61sEA==&amp;countrycode=GB&amp;currencycode=GBP</t>
+  </si>
+  <si>
+    <t>potentiometer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -398,176 +441,230 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.28515625" customWidth="1"/>
-    <col min="2" max="2" width="53" customWidth="1"/>
+    <col min="1" max="1" width="49.33203125" customWidth="1"/>
+    <col min="2" max="2" width="106.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>0.05</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>0.03</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>56.75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
